--- a/exceltestdata/bad_auditories_values.xlsx
+++ b/exceltestdata/bad_auditories_values.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="65">
   <si>
     <t>Место</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>klass</t>
-  </si>
-  <si>
-    <t>Очень Далеко</t>
   </si>
   <si>
     <t>seats</t>
@@ -1241,7 +1238,7 @@
   <dimension ref="A3:AP35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,7 +1290,7 @@
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="C6" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1380,7 +1377,7 @@
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="C9" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>13</v>
@@ -1405,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>2</v>
@@ -1453,7 +1450,9 @@
       <c r="I10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="K10" s="9" t="s">
         <v>2</v>
       </c>
@@ -1494,7 +1493,7 @@
     <row r="11" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
       <c r="C11" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>36</v>
@@ -1558,11 +1557,11 @@
         <v>37</v>
       </c>
       <c r="E12" s="19">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>Да</v>
+        <v>Ошибка, надо выбрать 0 или 1</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>2</v>
@@ -1610,7 +1609,7 @@
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="C13" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>38</v>
@@ -1741,7 +1740,7 @@
     </row>
     <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="9:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
